--- a/target/test-classes/dataprovider/TestData.xlsx
+++ b/target/test-classes/dataprovider/TestData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ranadeep_Banik\Desktop\Rana_Project_Files\cleartripappv4\cleartripapp\src\test\resources\dataprovider\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deepjoy banik\git\cleartrip-app-automation\src\test\resources\dataprovider\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65D4332-05A5-41B1-ADFF-91B5081E653D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE300917-BBB0-4E7C-ACA6-17B9EB200516}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{02736893-4635-498E-8794-D11ED371EB71}"/>
   </bookViews>
@@ -24,7 +24,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="38">
   <si>
     <t>Country Location</t>
   </si>
@@ -131,6 +130,21 @@
   </si>
   <si>
     <t>Mr. Singh Khu</t>
+  </si>
+  <si>
+    <t>Include Insurance</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -551,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B08E2A4-253F-4493-8692-1FB70C4579DE}">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:N3"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -567,10 +581,10 @@
     <col min="6" max="6" width="18.28515625" customWidth="1"/>
     <col min="7" max="7" width="20.28515625" customWidth="1"/>
     <col min="8" max="8" width="20.42578125" customWidth="1"/>
-    <col min="9" max="14" width="22" customWidth="1"/>
+    <col min="9" max="15" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -613,8 +627,11 @@
       <c r="N1" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O1" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -655,8 +672,11 @@
       <c r="N2" s="4">
         <v>7378332802</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O2" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -699,8 +719,11 @@
       <c r="N3" s="4">
         <v>8005642910</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O3" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -715,8 +738,9 @@
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O4" s="4"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -731,8 +755,9 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O5" s="4"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -747,8 +772,9 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O6" s="4"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -763,38 +789,43 @@
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O7" s="4"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O9" s="1"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O10" s="1"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -803,10 +834,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{653FFBEB-3837-45D7-BD8E-A6075B0B63FC}">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:P3"/>
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -820,10 +851,10 @@
     <col min="8" max="8" width="22.140625" customWidth="1"/>
     <col min="9" max="9" width="21.7109375" customWidth="1"/>
     <col min="10" max="10" width="23.140625" customWidth="1"/>
-    <col min="11" max="16" width="22" customWidth="1"/>
+    <col min="11" max="17" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -872,8 +903,11 @@
       <c r="P1" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q1" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -920,8 +954,11 @@
       <c r="P2" s="4">
         <v>7378332802</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q2" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -970,8 +1007,11 @@
       <c r="P3" s="4">
         <v>8005642910</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q3" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -988,8 +1028,9 @@
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
-    </row>
-    <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q4" s="4"/>
+    </row>
+    <row r="5" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -1006,8 +1047,9 @@
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
-    </row>
-    <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q5" s="4"/>
+    </row>
+    <row r="6" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -1024,8 +1066,9 @@
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
-    </row>
-    <row r="7" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q6" s="4"/>
+    </row>
+    <row r="7" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -1042,11 +1085,12 @@
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
-    </row>
-    <row r="8" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="Q7" s="4"/>
+    </row>
+    <row r="8" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
